--- a/CumulativeTestsByTypeByCounty/2022-04-01.xlsx
+++ b/CumulativeTestsByTypeByCounty/2022-04-01.xlsx
@@ -1074,16 +1074,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>84277</v>
+        <v>84845</v>
       </c>
       <c r="C2" s="4">
-        <v>2351</v>
+        <v>2384</v>
       </c>
       <c r="D2" s="4">
-        <v>48225</v>
+        <v>50183</v>
       </c>
       <c r="E2" s="4">
-        <v>134853</v>
+        <v>137412</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1091,16 +1091,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>6885</v>
+        <v>6915</v>
       </c>
       <c r="C3" s="4">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D3" s="4">
-        <v>7842</v>
+        <v>7924</v>
       </c>
       <c r="E3" s="4">
-        <v>15081</v>
+        <v>15198</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1108,16 +1108,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>87508</v>
+        <v>88114</v>
       </c>
       <c r="C4" s="4">
-        <v>4412</v>
+        <v>4514</v>
       </c>
       <c r="D4" s="4">
-        <v>95118</v>
+        <v>97526</v>
       </c>
       <c r="E4" s="4">
-        <v>187038</v>
+        <v>190154</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1125,16 +1125,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>20148</v>
+        <v>20437</v>
       </c>
       <c r="C5" s="4">
-        <v>3067</v>
+        <v>3086</v>
       </c>
       <c r="D5" s="4">
-        <v>16913</v>
+        <v>17157</v>
       </c>
       <c r="E5" s="4">
-        <v>40128</v>
+        <v>40680</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1142,16 +1142,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>5173</v>
+        <v>5264</v>
       </c>
       <c r="C6" s="4">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="D6" s="4">
-        <v>2367</v>
+        <v>2425</v>
       </c>
       <c r="E6" s="4">
-        <v>8215</v>
+        <v>8375</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1159,16 +1159,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>1236</v>
+        <v>1257</v>
       </c>
       <c r="C7" s="4">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D7" s="4">
-        <v>1627</v>
+        <v>1644</v>
       </c>
       <c r="E7" s="4">
-        <v>3120</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1176,16 +1176,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>119708</v>
+        <v>120767</v>
       </c>
       <c r="C8" s="4">
-        <v>1555</v>
+        <v>1576</v>
       </c>
       <c r="D8" s="4">
-        <v>21686</v>
+        <v>22608</v>
       </c>
       <c r="E8" s="4">
-        <v>142949</v>
+        <v>144951</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1193,16 +1193,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>34558</v>
+        <v>35061</v>
       </c>
       <c r="C9" s="4">
-        <v>1582</v>
+        <v>1596</v>
       </c>
       <c r="D9" s="4">
-        <v>6985</v>
+        <v>7257</v>
       </c>
       <c r="E9" s="4">
-        <v>43125</v>
+        <v>43914</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1210,16 +1210,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>2997</v>
+        <v>3047</v>
       </c>
       <c r="C10" s="4">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D10" s="4">
-        <v>2626</v>
+        <v>2912</v>
       </c>
       <c r="E10" s="4">
-        <v>5714</v>
+        <v>6054</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1227,16 +1227,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>16884</v>
+        <v>17103</v>
       </c>
       <c r="C11" s="4">
-        <v>975</v>
+        <v>998</v>
       </c>
       <c r="D11" s="4">
-        <v>11264</v>
+        <v>11513</v>
       </c>
       <c r="E11" s="4">
-        <v>29123</v>
+        <v>29614</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1244,16 +1244,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>112469</v>
+        <v>115154</v>
       </c>
       <c r="C12" s="4">
-        <v>3121</v>
+        <v>3209</v>
       </c>
       <c r="D12" s="4">
-        <v>49932</v>
+        <v>50946</v>
       </c>
       <c r="E12" s="4">
-        <v>165522</v>
+        <v>169309</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1261,16 +1261,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>2208</v>
+        <v>2248</v>
       </c>
       <c r="C13" s="4">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="D13" s="4">
-        <v>4202</v>
+        <v>4344</v>
       </c>
       <c r="E13" s="4">
-        <v>6877</v>
+        <v>7066</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1278,16 +1278,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>57404</v>
+        <v>57763</v>
       </c>
       <c r="C14" s="4">
-        <v>8626</v>
+        <v>8629</v>
       </c>
       <c r="D14" s="4">
-        <v>28596</v>
+        <v>28854</v>
       </c>
       <c r="E14" s="4">
-        <v>94626</v>
+        <v>95246</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1295,16 +1295,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>474874</v>
+        <v>482154</v>
       </c>
       <c r="C15" s="4">
-        <v>16500</v>
+        <v>16628</v>
       </c>
       <c r="D15" s="4">
-        <v>137239</v>
+        <v>142163</v>
       </c>
       <c r="E15" s="4">
-        <v>628613</v>
+        <v>640945</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1312,16 +1312,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>5082906</v>
+        <v>5149421</v>
       </c>
       <c r="C16" s="4">
-        <v>85738</v>
+        <v>87567</v>
       </c>
       <c r="D16" s="4">
-        <v>816187</v>
+        <v>848476</v>
       </c>
       <c r="E16" s="4">
-        <v>5984831</v>
+        <v>6085464</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1329,16 +1329,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>10414</v>
+        <v>10526</v>
       </c>
       <c r="C17" s="4">
-        <v>666</v>
+        <v>690</v>
       </c>
       <c r="D17" s="4">
-        <v>6358</v>
+        <v>6764</v>
       </c>
       <c r="E17" s="4">
-        <v>17438</v>
+        <v>17980</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1346,16 +1346,16 @@
         <v>21</v>
       </c>
       <c r="B18" s="4">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C18" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D18" s="4">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E18" s="4">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1">
@@ -1363,16 +1363,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>13876</v>
+        <v>14041</v>
       </c>
       <c r="C19" s="4">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="D19" s="4">
-        <v>10523</v>
+        <v>10749</v>
       </c>
       <c r="E19" s="4">
-        <v>24972</v>
+        <v>25366</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1380,16 +1380,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>99131</v>
+        <v>99862</v>
       </c>
       <c r="C20" s="4">
-        <v>10662</v>
+        <v>10695</v>
       </c>
       <c r="D20" s="4">
-        <v>44887</v>
+        <v>45915</v>
       </c>
       <c r="E20" s="4">
-        <v>154680</v>
+        <v>156472</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1397,16 +1397,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>683107</v>
+        <v>696978</v>
       </c>
       <c r="C21" s="4">
-        <v>24097</v>
+        <v>24339</v>
       </c>
       <c r="D21" s="4">
-        <v>149765</v>
+        <v>156750</v>
       </c>
       <c r="E21" s="4">
-        <v>856969</v>
+        <v>878067</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1414,16 +1414,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>516510</v>
+        <v>524698</v>
       </c>
       <c r="C22" s="4">
-        <v>13406</v>
+        <v>13639</v>
       </c>
       <c r="D22" s="4">
-        <v>60844</v>
+        <v>62030</v>
       </c>
       <c r="E22" s="4">
-        <v>590760</v>
+        <v>600367</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1431,16 +1431,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>9565</v>
+        <v>9589</v>
       </c>
       <c r="C23" s="4">
         <v>180</v>
       </c>
       <c r="D23" s="4">
-        <v>3696</v>
+        <v>3722</v>
       </c>
       <c r="E23" s="4">
-        <v>13441</v>
+        <v>13491</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1448,16 +1448,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>1694</v>
+        <v>1750</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
       </c>
       <c r="D24" s="4">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="E24" s="4">
-        <v>1934</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1465,16 +1465,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>26358</v>
+        <v>26424</v>
       </c>
       <c r="C25" s="4">
-        <v>1936</v>
+        <v>1939</v>
       </c>
       <c r="D25" s="4">
-        <v>7308</v>
+        <v>7392</v>
       </c>
       <c r="E25" s="4">
-        <v>35602</v>
+        <v>35755</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1482,16 +1482,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>30466</v>
+        <v>31314</v>
       </c>
       <c r="C26" s="4">
         <v>1269</v>
       </c>
       <c r="D26" s="4">
-        <v>52163</v>
+        <v>52998</v>
       </c>
       <c r="E26" s="4">
-        <v>83898</v>
+        <v>85581</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1499,16 +1499,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>30146</v>
+        <v>30573</v>
       </c>
       <c r="C27" s="4">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="D27" s="4">
-        <v>8080</v>
+        <v>8191</v>
       </c>
       <c r="E27" s="4">
-        <v>39036</v>
+        <v>39588</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1516,16 +1516,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>65903</v>
+        <v>66544</v>
       </c>
       <c r="C28" s="4">
-        <v>3021</v>
+        <v>3096</v>
       </c>
       <c r="D28" s="4">
-        <v>17458</v>
+        <v>17752</v>
       </c>
       <c r="E28" s="4">
-        <v>86382</v>
+        <v>87392</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1533,16 +1533,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>71848</v>
+        <v>73484</v>
       </c>
       <c r="C29" s="4">
-        <v>2477</v>
+        <v>2531</v>
       </c>
       <c r="D29" s="4">
-        <v>21559</v>
+        <v>21890</v>
       </c>
       <c r="E29" s="4">
-        <v>95884</v>
+        <v>97905</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1550,16 +1550,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>23320</v>
+        <v>23624</v>
       </c>
       <c r="C30" s="4">
-        <v>2831</v>
+        <v>2863</v>
       </c>
       <c r="D30" s="4">
-        <v>17930</v>
+        <v>18033</v>
       </c>
       <c r="E30" s="4">
-        <v>44081</v>
+        <v>44520</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>7745</v>
+        <v>7909</v>
       </c>
       <c r="C31" s="4">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="D31" s="4">
-        <v>14250</v>
+        <v>14485</v>
       </c>
       <c r="E31" s="4">
-        <v>22370</v>
+        <v>22775</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1584,16 +1584,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>518506</v>
+        <v>525577</v>
       </c>
       <c r="C32" s="4">
-        <v>12406</v>
+        <v>12551</v>
       </c>
       <c r="D32" s="4">
-        <v>196170</v>
+        <v>199911</v>
       </c>
       <c r="E32" s="4">
-        <v>727082</v>
+        <v>738039</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1601,16 +1601,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>11008</v>
+        <v>11121</v>
       </c>
       <c r="C33" s="4">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="D33" s="4">
-        <v>4619</v>
+        <v>4725</v>
       </c>
       <c r="E33" s="4">
-        <v>16199</v>
+        <v>16426</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1618,16 +1618,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>3636</v>
+        <v>3700</v>
       </c>
       <c r="C34" s="4">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="D34" s="4">
-        <v>1930</v>
+        <v>1974</v>
       </c>
       <c r="E34" s="4">
-        <v>6502</v>
+        <v>6613</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1635,16 +1635,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>22205</v>
+        <v>22500</v>
       </c>
       <c r="C35" s="4">
-        <v>3350</v>
+        <v>3358</v>
       </c>
       <c r="D35" s="4">
-        <v>17117</v>
+        <v>17546</v>
       </c>
       <c r="E35" s="4">
-        <v>42672</v>
+        <v>43404</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1652,16 +1652,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>9626</v>
+        <v>9911</v>
       </c>
       <c r="C36" s="4">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="D36" s="4">
-        <v>4589</v>
+        <v>4681</v>
       </c>
       <c r="E36" s="4">
-        <v>14502</v>
+        <v>14890</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1669,16 +1669,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>16688</v>
+        <v>17010</v>
       </c>
       <c r="C37" s="4">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="D37" s="4">
-        <v>4525</v>
+        <v>4687</v>
       </c>
       <c r="E37" s="4">
-        <v>22059</v>
+        <v>22548</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1686,16 +1686,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>41276</v>
+        <v>41629</v>
       </c>
       <c r="C38" s="4">
-        <v>1345</v>
+        <v>1376</v>
       </c>
       <c r="D38" s="4">
-        <v>37752</v>
+        <v>38861</v>
       </c>
       <c r="E38" s="4">
-        <v>80373</v>
+        <v>81866</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1703,16 +1703,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>8698</v>
+        <v>8820</v>
       </c>
       <c r="C39" s="4">
         <v>311</v>
       </c>
       <c r="D39" s="4">
-        <v>6763</v>
+        <v>6837</v>
       </c>
       <c r="E39" s="4">
-        <v>15772</v>
+        <v>15968</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1720,16 +1720,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>7384</v>
+        <v>7473</v>
       </c>
       <c r="C40" s="4">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="D40" s="4">
-        <v>7105</v>
+        <v>7250</v>
       </c>
       <c r="E40" s="4">
-        <v>15028</v>
+        <v>15276</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1737,16 +1737,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>2060</v>
+        <v>2080</v>
       </c>
       <c r="C41" s="4">
         <v>29</v>
       </c>
       <c r="D41" s="4">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E41" s="4">
-        <v>2682</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1754,16 +1754,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>3047</v>
+        <v>3067</v>
       </c>
       <c r="C42" s="4">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D42" s="4">
-        <v>4112</v>
+        <v>4149</v>
       </c>
       <c r="E42" s="4">
-        <v>7234</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1771,16 +1771,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>4988</v>
+        <v>5109</v>
       </c>
       <c r="C43" s="4">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D43" s="4">
-        <v>5901</v>
+        <v>5952</v>
       </c>
       <c r="E43" s="4">
-        <v>11085</v>
+        <v>11258</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1788,16 +1788,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>1866992</v>
+        <v>1910714</v>
       </c>
       <c r="C44" s="4">
-        <v>118479</v>
+        <v>121385</v>
       </c>
       <c r="D44" s="4">
-        <v>419458</v>
+        <v>436870</v>
       </c>
       <c r="E44" s="4">
-        <v>2404929</v>
+        <v>2468969</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1805,16 +1805,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>2263</v>
+        <v>2298</v>
       </c>
       <c r="C45" s="4">
         <v>74</v>
       </c>
       <c r="D45" s="4">
-        <v>3849</v>
+        <v>3996</v>
       </c>
       <c r="E45" s="4">
-        <v>6186</v>
+        <v>6368</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1822,16 +1822,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>22211</v>
+        <v>22651</v>
       </c>
       <c r="C46" s="4">
-        <v>1007</v>
+        <v>1015</v>
       </c>
       <c r="D46" s="4">
-        <v>13052</v>
+        <v>13424</v>
       </c>
       <c r="E46" s="4">
-        <v>36270</v>
+        <v>37090</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1839,16 +1839,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>224673</v>
+        <v>229095</v>
       </c>
       <c r="C47" s="4">
-        <v>15039</v>
+        <v>15426</v>
       </c>
       <c r="D47" s="4">
-        <v>72679</v>
+        <v>76818</v>
       </c>
       <c r="E47" s="4">
-        <v>312391</v>
+        <v>321339</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1856,16 +1856,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>13053</v>
+        <v>13213</v>
       </c>
       <c r="C48" s="4">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D48" s="4">
-        <v>8229</v>
+        <v>8491</v>
       </c>
       <c r="E48" s="4">
-        <v>21669</v>
+        <v>22095</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1873,16 +1873,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>2664</v>
+        <v>2800</v>
       </c>
       <c r="C49" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D49" s="4">
-        <v>5755</v>
+        <v>6051</v>
       </c>
       <c r="E49" s="4">
-        <v>8459</v>
+        <v>8893</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1890,16 +1890,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>35328</v>
+        <v>35695</v>
       </c>
       <c r="C50" s="4">
-        <v>2479</v>
+        <v>2527</v>
       </c>
       <c r="D50" s="4">
-        <v>16157</v>
+        <v>16427</v>
       </c>
       <c r="E50" s="4">
-        <v>53964</v>
+        <v>54649</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1907,16 +1907,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>150374</v>
+        <v>152311</v>
       </c>
       <c r="C51" s="4">
-        <v>2434</v>
+        <v>2439</v>
       </c>
       <c r="D51" s="4">
-        <v>37173</v>
+        <v>38929</v>
       </c>
       <c r="E51" s="4">
-        <v>189981</v>
+        <v>193679</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1924,16 +1924,16 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>1517</v>
+        <v>1528</v>
       </c>
       <c r="C52" s="4">
         <v>71</v>
       </c>
       <c r="D52" s="4">
-        <v>1062</v>
+        <v>1073</v>
       </c>
       <c r="E52" s="4">
-        <v>2650</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1941,16 +1941,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>5024</v>
+        <v>5041</v>
       </c>
       <c r="C53" s="4">
         <v>101</v>
       </c>
       <c r="D53" s="4">
-        <v>5317</v>
+        <v>5603</v>
       </c>
       <c r="E53" s="4">
-        <v>10442</v>
+        <v>10745</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1958,16 +1958,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="4">
-        <v>1284</v>
+        <v>1291</v>
       </c>
       <c r="C54" s="4">
         <v>0</v>
       </c>
       <c r="D54" s="4">
-        <v>5957</v>
+        <v>6043</v>
       </c>
       <c r="E54" s="4">
-        <v>7241</v>
+        <v>7334</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1975,16 +1975,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>4245</v>
+        <v>4345</v>
       </c>
       <c r="C55" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D55" s="4">
-        <v>4533</v>
+        <v>4675</v>
       </c>
       <c r="E55" s="4">
-        <v>8855</v>
+        <v>9098</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1992,16 +1992,16 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>3127</v>
+        <v>3154</v>
       </c>
       <c r="C56" s="4">
         <v>42</v>
       </c>
       <c r="D56" s="4">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="E56" s="4">
-        <v>3631</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2009,16 +2009,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>4464</v>
+        <v>4503</v>
       </c>
       <c r="C57" s="4">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="D57" s="4">
-        <v>4345</v>
+        <v>4395</v>
       </c>
       <c r="E57" s="4">
-        <v>9228</v>
+        <v>9324</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2026,16 +2026,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>4459360</v>
+        <v>4540697</v>
       </c>
       <c r="C58" s="4">
-        <v>174703</v>
+        <v>176783</v>
       </c>
       <c r="D58" s="4">
-        <v>796144</v>
+        <v>819494</v>
       </c>
       <c r="E58" s="4">
-        <v>5430207</v>
+        <v>5536974</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2043,16 +2043,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>12347</v>
+        <v>12383</v>
       </c>
       <c r="C59" s="4">
-        <v>637</v>
+        <v>656</v>
       </c>
       <c r="D59" s="4">
-        <v>6952</v>
+        <v>7219</v>
       </c>
       <c r="E59" s="4">
-        <v>19936</v>
+        <v>20258</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2060,16 +2060,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>17939</v>
+        <v>18118</v>
       </c>
       <c r="C60" s="4">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="D60" s="4">
-        <v>9932</v>
+        <v>10401</v>
       </c>
       <c r="E60" s="4">
-        <v>28582</v>
+        <v>29252</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2077,16 +2077,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>9535</v>
+        <v>9749</v>
       </c>
       <c r="C61" s="4">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="D61" s="4">
-        <v>8849</v>
+        <v>9128</v>
       </c>
       <c r="E61" s="4">
-        <v>19265</v>
+        <v>19764</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2094,16 +2094,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>3532</v>
+        <v>3577</v>
       </c>
       <c r="C62" s="4">
         <v>253</v>
       </c>
       <c r="D62" s="4">
-        <v>4025</v>
+        <v>4116</v>
       </c>
       <c r="E62" s="4">
-        <v>7810</v>
+        <v>7946</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2111,16 +2111,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>1090046</v>
+        <v>1109085</v>
       </c>
       <c r="C63" s="4">
-        <v>83112</v>
+        <v>84175</v>
       </c>
       <c r="D63" s="4">
-        <v>328382</v>
+        <v>337561</v>
       </c>
       <c r="E63" s="4">
-        <v>1501540</v>
+        <v>1530821</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2128,16 +2128,16 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>977</v>
+        <v>995</v>
       </c>
       <c r="C64" s="4">
         <v>0</v>
       </c>
       <c r="D64" s="4">
-        <v>1309</v>
+        <v>1346</v>
       </c>
       <c r="E64" s="4">
-        <v>2286</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2145,16 +2145,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>37197</v>
+        <v>37716</v>
       </c>
       <c r="C65" s="4">
         <v>134</v>
       </c>
       <c r="D65" s="4">
-        <v>48307</v>
+        <v>48880</v>
       </c>
       <c r="E65" s="4">
-        <v>85638</v>
+        <v>86730</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2162,16 +2162,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>2383</v>
+        <v>2424</v>
       </c>
       <c r="C66" s="4">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D66" s="4">
-        <v>2675</v>
+        <v>2712</v>
       </c>
       <c r="E66" s="4">
-        <v>5471</v>
+        <v>5551</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2179,16 +2179,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>26958</v>
+        <v>27156</v>
       </c>
       <c r="C67" s="4">
-        <v>3563</v>
+        <v>3564</v>
       </c>
       <c r="D67" s="4">
-        <v>14359</v>
+        <v>14510</v>
       </c>
       <c r="E67" s="4">
-        <v>44880</v>
+        <v>45230</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2196,16 +2196,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>8547</v>
+        <v>8658</v>
       </c>
       <c r="C68" s="4">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="D68" s="4">
-        <v>10361</v>
+        <v>10594</v>
       </c>
       <c r="E68" s="4">
-        <v>19482</v>
+        <v>19829</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2213,16 +2213,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>108677</v>
+        <v>110408</v>
       </c>
       <c r="C69" s="4">
-        <v>6759</v>
+        <v>6825</v>
       </c>
       <c r="D69" s="4">
-        <v>86593</v>
+        <v>89441</v>
       </c>
       <c r="E69" s="4">
-        <v>202029</v>
+        <v>206674</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2230,16 +2230,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1567</v>
+        <v>1577</v>
       </c>
       <c r="C70" s="4">
         <v>44</v>
       </c>
       <c r="D70" s="4">
-        <v>1099</v>
+        <v>1111</v>
       </c>
       <c r="E70" s="4">
-        <v>2710</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2247,16 +2247,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>1510716</v>
+        <v>1528406</v>
       </c>
       <c r="C71" s="4">
-        <v>24194</v>
+        <v>24459</v>
       </c>
       <c r="D71" s="4">
-        <v>713951</v>
+        <v>730855</v>
       </c>
       <c r="E71" s="4">
-        <v>2248861</v>
+        <v>2283720</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2264,16 +2264,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>291976</v>
+        <v>296662</v>
       </c>
       <c r="C72" s="4">
-        <v>9947</v>
+        <v>10088</v>
       </c>
       <c r="D72" s="4">
-        <v>67634</v>
+        <v>69668</v>
       </c>
       <c r="E72" s="4">
-        <v>369557</v>
+        <v>376418</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2281,16 +2281,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>38322</v>
+        <v>38795</v>
       </c>
       <c r="C73" s="4">
-        <v>2347</v>
+        <v>2413</v>
       </c>
       <c r="D73" s="4">
-        <v>17440</v>
+        <v>17589</v>
       </c>
       <c r="E73" s="4">
-        <v>58109</v>
+        <v>58797</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2298,16 +2298,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>20045</v>
+        <v>20239</v>
       </c>
       <c r="C74" s="4">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D74" s="4">
-        <v>11729</v>
+        <v>12122</v>
       </c>
       <c r="E74" s="4">
-        <v>32265</v>
+        <v>32853</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2315,16 +2315,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>48586</v>
+        <v>49094</v>
       </c>
       <c r="C75" s="4">
-        <v>1218</v>
+        <v>1231</v>
       </c>
       <c r="D75" s="4">
-        <v>14101</v>
+        <v>14299</v>
       </c>
       <c r="E75" s="4">
-        <v>63905</v>
+        <v>64624</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2332,16 +2332,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>26665</v>
+        <v>27509</v>
       </c>
       <c r="C76" s="4">
-        <v>1076</v>
+        <v>1097</v>
       </c>
       <c r="D76" s="4">
-        <v>9308</v>
+        <v>9652</v>
       </c>
       <c r="E76" s="4">
-        <v>37049</v>
+        <v>38258</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2349,16 +2349,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1850</v>
+        <v>1857</v>
       </c>
       <c r="C77" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D77" s="4">
-        <v>992</v>
+        <v>1012</v>
       </c>
       <c r="E77" s="4">
-        <v>2891</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2366,16 +2366,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>5689</v>
+        <v>5816</v>
       </c>
       <c r="C78" s="4">
         <v>170</v>
       </c>
       <c r="D78" s="4">
-        <v>1103</v>
+        <v>1127</v>
       </c>
       <c r="E78" s="4">
-        <v>6962</v>
+        <v>7113</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2389,10 +2389,10 @@
         <v>114</v>
       </c>
       <c r="D79" s="4">
-        <v>2582</v>
+        <v>2613</v>
       </c>
       <c r="E79" s="4">
-        <v>3447</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2400,16 +2400,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>1425557</v>
+        <v>1466958</v>
       </c>
       <c r="C80" s="4">
-        <v>48664</v>
+        <v>49241</v>
       </c>
       <c r="D80" s="4">
-        <v>216317</v>
+        <v>226065</v>
       </c>
       <c r="E80" s="4">
-        <v>1690538</v>
+        <v>1742264</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2417,16 +2417,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>8173</v>
+        <v>8266</v>
       </c>
       <c r="C81" s="4">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="D81" s="4">
-        <v>2268</v>
+        <v>2350</v>
       </c>
       <c r="E81" s="4">
-        <v>11049</v>
+        <v>11231</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2434,16 +2434,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>26816</v>
+        <v>27248</v>
       </c>
       <c r="C82" s="4">
-        <v>882</v>
+        <v>893</v>
       </c>
       <c r="D82" s="4">
-        <v>24793</v>
+        <v>25453</v>
       </c>
       <c r="E82" s="4">
-        <v>52491</v>
+        <v>53594</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2451,16 +2451,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>40082</v>
+        <v>40623</v>
       </c>
       <c r="C83" s="4">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D83" s="4">
-        <v>10455</v>
+        <v>10582</v>
       </c>
       <c r="E83" s="4">
-        <v>51123</v>
+        <v>51792</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2468,16 +2468,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>5811</v>
+        <v>5863</v>
       </c>
       <c r="C84" s="4">
         <v>311</v>
       </c>
       <c r="D84" s="4">
-        <v>3352</v>
+        <v>3481</v>
       </c>
       <c r="E84" s="4">
-        <v>9474</v>
+        <v>9655</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2485,16 +2485,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>730334</v>
+        <v>742332</v>
       </c>
       <c r="C85" s="4">
-        <v>25637</v>
+        <v>25822</v>
       </c>
       <c r="D85" s="4">
-        <v>130584</v>
+        <v>136074</v>
       </c>
       <c r="E85" s="4">
-        <v>886555</v>
+        <v>904228</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2502,16 +2502,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>5057</v>
+        <v>5143</v>
       </c>
       <c r="C86" s="4">
         <v>80</v>
       </c>
       <c r="D86" s="4">
-        <v>2256</v>
+        <v>2273</v>
       </c>
       <c r="E86" s="4">
-        <v>7393</v>
+        <v>7496</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2519,16 +2519,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>24357</v>
+        <v>24635</v>
       </c>
       <c r="C87" s="4">
-        <v>1273</v>
+        <v>1303</v>
       </c>
       <c r="D87" s="4">
-        <v>14713</v>
+        <v>15149</v>
       </c>
       <c r="E87" s="4">
-        <v>40343</v>
+        <v>41087</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2536,16 +2536,16 @@
         <v>91</v>
       </c>
       <c r="B88" s="4">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C88" s="4">
         <v>56</v>
       </c>
       <c r="D88" s="4">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="E88" s="4">
-        <v>598</v>
+        <v>609</v>
       </c>
     </row>
     <row r="89" ht="14" customHeight="1">
@@ -2553,16 +2553,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>5490</v>
+        <v>5546</v>
       </c>
       <c r="C89" s="4">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="D89" s="4">
-        <v>4199</v>
+        <v>4232</v>
       </c>
       <c r="E89" s="4">
-        <v>10135</v>
+        <v>10244</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2570,16 +2570,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>18884</v>
+        <v>19052</v>
       </c>
       <c r="C90" s="4">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="D90" s="4">
-        <v>15736</v>
+        <v>16146</v>
       </c>
       <c r="E90" s="4">
-        <v>35221</v>
+        <v>35813</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2587,16 +2587,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>14752</v>
+        <v>14886</v>
       </c>
       <c r="C91" s="4">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="D91" s="4">
-        <v>14460</v>
+        <v>14803</v>
       </c>
       <c r="E91" s="4">
-        <v>30112</v>
+        <v>30639</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2604,16 +2604,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>193572</v>
+        <v>197175</v>
       </c>
       <c r="C92" s="4">
-        <v>6796</v>
+        <v>6898</v>
       </c>
       <c r="D92" s="4">
-        <v>62642</v>
+        <v>64869</v>
       </c>
       <c r="E92" s="4">
-        <v>263010</v>
+        <v>268942</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2621,16 +2621,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>91825</v>
+        <v>93115</v>
       </c>
       <c r="C93" s="4">
-        <v>12355</v>
+        <v>12434</v>
       </c>
       <c r="D93" s="4">
-        <v>54502</v>
+        <v>55535</v>
       </c>
       <c r="E93" s="4">
-        <v>158682</v>
+        <v>161084</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2638,16 +2638,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>62819</v>
+        <v>63512</v>
       </c>
       <c r="C94" s="4">
-        <v>1382</v>
+        <v>1399</v>
       </c>
       <c r="D94" s="4">
-        <v>16970</v>
+        <v>17713</v>
       </c>
       <c r="E94" s="4">
-        <v>81171</v>
+        <v>82624</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2655,16 +2655,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>174191</v>
+        <v>176876</v>
       </c>
       <c r="C95" s="4">
-        <v>7161</v>
+        <v>7350</v>
       </c>
       <c r="D95" s="4">
-        <v>64173</v>
+        <v>68114</v>
       </c>
       <c r="E95" s="4">
-        <v>245525</v>
+        <v>252340</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2672,16 +2672,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>35721</v>
+        <v>36188</v>
       </c>
       <c r="C96" s="4">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="D96" s="4">
-        <v>10405</v>
+        <v>10773</v>
       </c>
       <c r="E96" s="4">
-        <v>46672</v>
+        <v>47513</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2689,16 +2689,16 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>2899</v>
+        <v>3001</v>
       </c>
       <c r="C97" s="4">
         <v>67</v>
       </c>
       <c r="D97" s="4">
-        <v>3695</v>
+        <v>3815</v>
       </c>
       <c r="E97" s="4">
-        <v>6661</v>
+        <v>6883</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2706,16 +2706,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>12683</v>
+        <v>12862</v>
       </c>
       <c r="C98" s="4">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="D98" s="4">
-        <v>5438</v>
+        <v>5701</v>
       </c>
       <c r="E98" s="4">
-        <v>18609</v>
+        <v>19058</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2723,16 +2723,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>2393</v>
+        <v>2526</v>
       </c>
       <c r="C99" s="4">
-        <v>742</v>
+        <v>761</v>
       </c>
       <c r="D99" s="4">
-        <v>5004</v>
+        <v>5647</v>
       </c>
       <c r="E99" s="4">
-        <v>8139</v>
+        <v>8934</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2740,16 +2740,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>2724</v>
+        <v>2739</v>
       </c>
       <c r="C100" s="4">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D100" s="4">
-        <v>4425</v>
+        <v>4523</v>
       </c>
       <c r="E100" s="4">
-        <v>7376</v>
+        <v>7495</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2757,16 +2757,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>49233</v>
+        <v>50093</v>
       </c>
       <c r="C101" s="4">
-        <v>4815</v>
+        <v>4892</v>
       </c>
       <c r="D101" s="4">
-        <v>32854</v>
+        <v>33975</v>
       </c>
       <c r="E101" s="4">
-        <v>86902</v>
+        <v>88960</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2774,16 +2774,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>8958803</v>
+        <v>9240344</v>
       </c>
       <c r="C102" s="4">
-        <v>263377</v>
+        <v>265993</v>
       </c>
       <c r="D102" s="4">
-        <v>1322140</v>
+        <v>1379442</v>
       </c>
       <c r="E102" s="4">
-        <v>10544320</v>
+        <v>10885779</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2791,16 +2791,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>91046</v>
+        <v>91961</v>
       </c>
       <c r="C103" s="4">
-        <v>9380</v>
+        <v>9431</v>
       </c>
       <c r="D103" s="4">
-        <v>41035</v>
+        <v>41887</v>
       </c>
       <c r="E103" s="4">
-        <v>141461</v>
+        <v>143279</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2808,16 +2808,16 @@
         <v>107</v>
       </c>
       <c r="B104" s="4">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C104" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D104" s="4">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="E104" s="4">
-        <v>642</v>
+        <v>654</v>
       </c>
     </row>
     <row r="105" ht="14" customHeight="1">
@@ -2825,16 +2825,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>2096</v>
+        <v>2131</v>
       </c>
       <c r="C105" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D105" s="4">
-        <v>4431</v>
+        <v>4638</v>
       </c>
       <c r="E105" s="4">
-        <v>6577</v>
+        <v>6821</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2842,16 +2842,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>528639</v>
+        <v>539611</v>
       </c>
       <c r="C106" s="4">
-        <v>19874</v>
+        <v>20306</v>
       </c>
       <c r="D106" s="4">
-        <v>75229</v>
+        <v>77958</v>
       </c>
       <c r="E106" s="4">
-        <v>623742</v>
+        <v>637875</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2859,16 +2859,16 @@
         <v>110</v>
       </c>
       <c r="B107" s="4">
-        <v>1568</v>
+        <v>1593</v>
       </c>
       <c r="C107" s="4">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D107" s="4">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="E107" s="4">
-        <v>2577</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2876,16 +2876,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>57097</v>
+        <v>57850</v>
       </c>
       <c r="C108" s="4">
-        <v>3389</v>
+        <v>3437</v>
       </c>
       <c r="D108" s="4">
-        <v>33594</v>
+        <v>34103</v>
       </c>
       <c r="E108" s="4">
-        <v>94080</v>
+        <v>95390</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2893,16 +2893,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>1020065</v>
+        <v>1047204</v>
       </c>
       <c r="C109" s="4">
-        <v>24265</v>
+        <v>24750</v>
       </c>
       <c r="D109" s="4">
-        <v>496862</v>
+        <v>508017</v>
       </c>
       <c r="E109" s="4">
-        <v>1541192</v>
+        <v>1579971</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2910,16 +2910,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>46186</v>
+        <v>46611</v>
       </c>
       <c r="C110" s="4">
-        <v>1308</v>
+        <v>1320</v>
       </c>
       <c r="D110" s="4">
-        <v>23237</v>
+        <v>23891</v>
       </c>
       <c r="E110" s="4">
-        <v>70731</v>
+        <v>71822</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2927,16 +2927,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>21881</v>
+        <v>22203</v>
       </c>
       <c r="C111" s="4">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D111" s="4">
-        <v>10000</v>
+        <v>10389</v>
       </c>
       <c r="E111" s="4">
-        <v>32160</v>
+        <v>32873</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2944,16 +2944,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>62557</v>
+        <v>63605</v>
       </c>
       <c r="C112" s="4">
-        <v>3304</v>
+        <v>3355</v>
       </c>
       <c r="D112" s="4">
-        <v>50652</v>
+        <v>51883</v>
       </c>
       <c r="E112" s="4">
-        <v>116513</v>
+        <v>118843</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2961,16 +2961,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>31156</v>
+        <v>31463</v>
       </c>
       <c r="C113" s="4">
-        <v>2122</v>
+        <v>2127</v>
       </c>
       <c r="D113" s="4">
-        <v>17515</v>
+        <v>17838</v>
       </c>
       <c r="E113" s="4">
-        <v>50793</v>
+        <v>51428</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2978,16 +2978,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>22376</v>
+        <v>22508</v>
       </c>
       <c r="C114" s="4">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="D114" s="4">
-        <v>14459</v>
+        <v>14992</v>
       </c>
       <c r="E114" s="4">
-        <v>37579</v>
+        <v>38254</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2995,16 +2995,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>24358</v>
+        <v>24511</v>
       </c>
       <c r="C115" s="4">
-        <v>1010</v>
+        <v>1026</v>
       </c>
       <c r="D115" s="4">
-        <v>29870</v>
+        <v>30755</v>
       </c>
       <c r="E115" s="4">
-        <v>55238</v>
+        <v>56292</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3012,16 +3012,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>3636</v>
+        <v>3662</v>
       </c>
       <c r="C116" s="4">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D116" s="4">
-        <v>1944</v>
+        <v>1957</v>
       </c>
       <c r="E116" s="4">
-        <v>5637</v>
+        <v>5678</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3029,16 +3029,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>149132</v>
+        <v>151180</v>
       </c>
       <c r="C117" s="4">
-        <v>5254</v>
+        <v>5316</v>
       </c>
       <c r="D117" s="4">
-        <v>57183</v>
+        <v>58871</v>
       </c>
       <c r="E117" s="4">
-        <v>211569</v>
+        <v>215367</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3046,16 +3046,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>15068</v>
+        <v>15264</v>
       </c>
       <c r="C118" s="4">
-        <v>1365</v>
+        <v>1378</v>
       </c>
       <c r="D118" s="4">
-        <v>11922</v>
+        <v>12082</v>
       </c>
       <c r="E118" s="4">
-        <v>28355</v>
+        <v>28724</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3063,16 +3063,16 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="C119" s="4">
         <v>28</v>
       </c>
       <c r="D119" s="4">
-        <v>1090</v>
+        <v>1109</v>
       </c>
       <c r="E119" s="4">
-        <v>1708</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3080,16 +3080,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>5723</v>
+        <v>5919</v>
       </c>
       <c r="C120" s="4">
         <v>228</v>
       </c>
       <c r="D120" s="4">
-        <v>2327</v>
+        <v>2378</v>
       </c>
       <c r="E120" s="4">
-        <v>8278</v>
+        <v>8525</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3097,16 +3097,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>12410</v>
+        <v>12565</v>
       </c>
       <c r="C121" s="4">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="D121" s="4">
-        <v>6653</v>
+        <v>7087</v>
       </c>
       <c r="E121" s="4">
-        <v>19724</v>
+        <v>20318</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3114,16 +3114,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>31688</v>
+        <v>32118</v>
       </c>
       <c r="C122" s="4">
-        <v>3232</v>
+        <v>3260</v>
       </c>
       <c r="D122" s="4">
-        <v>20837</v>
+        <v>21291</v>
       </c>
       <c r="E122" s="4">
-        <v>55757</v>
+        <v>56669</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3131,16 +3131,16 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>1967</v>
+        <v>1981</v>
       </c>
       <c r="C123" s="4">
         <v>60</v>
       </c>
       <c r="D123" s="4">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="E123" s="4">
-        <v>2442</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3148,16 +3148,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>263742</v>
+        <v>267160</v>
       </c>
       <c r="C124" s="4">
-        <v>17299</v>
+        <v>17490</v>
       </c>
       <c r="D124" s="4">
-        <v>123818</v>
+        <v>125509</v>
       </c>
       <c r="E124" s="4">
-        <v>404859</v>
+        <v>410159</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3165,16 +3165,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>14941</v>
+        <v>14980</v>
       </c>
       <c r="C125" s="4">
         <v>781</v>
       </c>
       <c r="D125" s="4">
-        <v>17928</v>
+        <v>18001</v>
       </c>
       <c r="E125" s="4">
-        <v>33650</v>
+        <v>33762</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3182,16 +3182,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>96277</v>
+        <v>97317</v>
       </c>
       <c r="C126" s="4">
-        <v>11594</v>
+        <v>11612</v>
       </c>
       <c r="D126" s="4">
-        <v>41506</v>
+        <v>42581</v>
       </c>
       <c r="E126" s="4">
-        <v>149377</v>
+        <v>151510</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3199,16 +3199,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>226338</v>
+        <v>229940</v>
       </c>
       <c r="C127" s="4">
-        <v>9382</v>
+        <v>9494</v>
       </c>
       <c r="D127" s="4">
-        <v>60614</v>
+        <v>62642</v>
       </c>
       <c r="E127" s="4">
-        <v>296334</v>
+        <v>302076</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3216,16 +3216,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>13157</v>
+        <v>13424</v>
       </c>
       <c r="C128" s="4">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D128" s="4">
-        <v>11852</v>
+        <v>12175</v>
       </c>
       <c r="E128" s="4">
-        <v>25258</v>
+        <v>25849</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3233,16 +3233,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>23262</v>
+        <v>23436</v>
       </c>
       <c r="C129" s="4">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D129" s="4">
-        <v>16500</v>
+        <v>16892</v>
       </c>
       <c r="E129" s="4">
-        <v>40380</v>
+        <v>40948</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3250,16 +3250,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>201102</v>
+        <v>204419</v>
       </c>
       <c r="C130" s="4">
-        <v>7540</v>
+        <v>7643</v>
       </c>
       <c r="D130" s="4">
-        <v>65064</v>
+        <v>66596</v>
       </c>
       <c r="E130" s="4">
-        <v>273706</v>
+        <v>278658</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3267,16 +3267,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>49232</v>
+        <v>50281</v>
       </c>
       <c r="C131" s="4">
-        <v>3483</v>
+        <v>3580</v>
       </c>
       <c r="D131" s="4">
-        <v>26533</v>
+        <v>27142</v>
       </c>
       <c r="E131" s="4">
-        <v>79248</v>
+        <v>81003</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3284,16 +3284,16 @@
         <v>135</v>
       </c>
       <c r="B132" s="4">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C132" s="4">
         <v>58</v>
       </c>
       <c r="D132" s="4">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E132" s="4">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="133" ht="14" customHeight="1">
@@ -3301,16 +3301,16 @@
         <v>136</v>
       </c>
       <c r="B133" s="4">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C133" s="4">
         <v>15</v>
       </c>
       <c r="D133" s="4">
-        <v>2298</v>
+        <v>2401</v>
       </c>
       <c r="E133" s="4">
-        <v>2651</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3318,16 +3318,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>50592</v>
+        <v>51099</v>
       </c>
       <c r="C134" s="4">
-        <v>2599</v>
+        <v>2672</v>
       </c>
       <c r="D134" s="4">
-        <v>59532</v>
+        <v>61146</v>
       </c>
       <c r="E134" s="4">
-        <v>112723</v>
+        <v>114917</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3335,16 +3335,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>2562</v>
+        <v>2571</v>
       </c>
       <c r="C135" s="4">
         <v>90</v>
       </c>
       <c r="D135" s="4">
-        <v>1839</v>
+        <v>1897</v>
       </c>
       <c r="E135" s="4">
-        <v>4491</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3352,7 +3352,7 @@
         <v>139</v>
       </c>
       <c r="B136" s="4">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C136" s="4">
         <v>9</v>
@@ -3361,7 +3361,7 @@
         <v>51</v>
       </c>
       <c r="E136" s="4">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="137" ht="14" customHeight="1">
@@ -3369,16 +3369,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>3696</v>
+        <v>3738</v>
       </c>
       <c r="C137" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D137" s="4">
-        <v>924</v>
+        <v>932</v>
       </c>
       <c r="E137" s="4">
-        <v>4687</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3386,16 +3386,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>45611</v>
+        <v>46052</v>
       </c>
       <c r="C138" s="4">
-        <v>5592</v>
+        <v>5600</v>
       </c>
       <c r="D138" s="4">
-        <v>21401</v>
+        <v>21601</v>
       </c>
       <c r="E138" s="4">
-        <v>72604</v>
+        <v>73253</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3403,16 +3403,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>1335</v>
+        <v>1362</v>
       </c>
       <c r="C139" s="4">
         <v>69</v>
       </c>
       <c r="D139" s="4">
-        <v>6980</v>
+        <v>7105</v>
       </c>
       <c r="E139" s="4">
-        <v>8384</v>
+        <v>8536</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3420,16 +3420,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>14449</v>
+        <v>14888</v>
       </c>
       <c r="C140" s="4">
         <v>330</v>
       </c>
       <c r="D140" s="4">
-        <v>7940</v>
+        <v>8379</v>
       </c>
       <c r="E140" s="4">
-        <v>22719</v>
+        <v>23597</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3437,16 +3437,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>33931</v>
+        <v>34227</v>
       </c>
       <c r="C141" s="4">
-        <v>3033</v>
+        <v>3058</v>
       </c>
       <c r="D141" s="4">
-        <v>26072</v>
+        <v>26742</v>
       </c>
       <c r="E141" s="4">
-        <v>63036</v>
+        <v>64027</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3454,16 +3454,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>10353</v>
+        <v>10508</v>
       </c>
       <c r="C142" s="4">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D142" s="4">
-        <v>12919</v>
+        <v>13997</v>
       </c>
       <c r="E142" s="4">
-        <v>23454</v>
+        <v>24688</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3471,16 +3471,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>33653</v>
+        <v>34142</v>
       </c>
       <c r="C143" s="4">
-        <v>830</v>
+        <v>842</v>
       </c>
       <c r="D143" s="4">
-        <v>9380</v>
+        <v>9475</v>
       </c>
       <c r="E143" s="4">
-        <v>43863</v>
+        <v>44459</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3488,16 +3488,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>21113</v>
+        <v>21318</v>
       </c>
       <c r="C144" s="4">
-        <v>1524</v>
+        <v>1550</v>
       </c>
       <c r="D144" s="4">
-        <v>19580</v>
+        <v>20227</v>
       </c>
       <c r="E144" s="4">
-        <v>42217</v>
+        <v>43095</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3505,16 +3505,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>14866</v>
+        <v>15241</v>
       </c>
       <c r="C145" s="4">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="D145" s="4">
-        <v>8201</v>
+        <v>8382</v>
       </c>
       <c r="E145" s="4">
-        <v>23615</v>
+        <v>24181</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3522,16 +3522,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>19198</v>
+        <v>19464</v>
       </c>
       <c r="C146" s="4">
-        <v>802</v>
+        <v>815</v>
       </c>
       <c r="D146" s="4">
-        <v>8988</v>
+        <v>9232</v>
       </c>
       <c r="E146" s="4">
-        <v>28988</v>
+        <v>29511</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3539,16 +3539,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>103991</v>
+        <v>105813</v>
       </c>
       <c r="C147" s="4">
-        <v>4569</v>
+        <v>4589</v>
       </c>
       <c r="D147" s="4">
-        <v>33308</v>
+        <v>34385</v>
       </c>
       <c r="E147" s="4">
-        <v>141868</v>
+        <v>144787</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3556,16 +3556,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>42632</v>
+        <v>43127</v>
       </c>
       <c r="C148" s="4">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D148" s="4">
-        <v>45523</v>
+        <v>46603</v>
       </c>
       <c r="E148" s="4">
-        <v>88936</v>
+        <v>90513</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3573,16 +3573,16 @@
         <v>152</v>
       </c>
       <c r="B149" s="4">
-        <v>748</v>
+        <v>761</v>
       </c>
       <c r="C149" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D149" s="4">
-        <v>1387</v>
+        <v>1410</v>
       </c>
       <c r="E149" s="4">
-        <v>2375</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3590,16 +3590,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>10337</v>
+        <v>10408</v>
       </c>
       <c r="C150" s="4">
         <v>1396</v>
       </c>
       <c r="D150" s="4">
-        <v>9320</v>
+        <v>9477</v>
       </c>
       <c r="E150" s="4">
-        <v>21053</v>
+        <v>21281</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3607,16 +3607,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>20894</v>
+        <v>21047</v>
       </c>
       <c r="C151" s="4">
-        <v>818</v>
+        <v>833</v>
       </c>
       <c r="D151" s="4">
-        <v>6314</v>
+        <v>6421</v>
       </c>
       <c r="E151" s="4">
-        <v>28026</v>
+        <v>28301</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3624,16 +3624,16 @@
         <v>155</v>
       </c>
       <c r="B152" s="4">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="C152" s="4">
         <v>0</v>
       </c>
       <c r="D152" s="4">
-        <v>15391</v>
+        <v>15917</v>
       </c>
       <c r="E152" s="4">
-        <v>15875</v>
+        <v>16426</v>
       </c>
     </row>
     <row r="153" ht="14" customHeight="1">
@@ -3641,16 +3641,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>389167</v>
+        <v>396727</v>
       </c>
       <c r="C153" s="4">
-        <v>13268</v>
+        <v>13566</v>
       </c>
       <c r="D153" s="4">
-        <v>216976</v>
+        <v>221810</v>
       </c>
       <c r="E153" s="4">
-        <v>619411</v>
+        <v>632103</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3658,16 +3658,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>5028</v>
+        <v>5113</v>
       </c>
       <c r="C154" s="4">
         <v>192</v>
       </c>
       <c r="D154" s="4">
-        <v>4462</v>
+        <v>4519</v>
       </c>
       <c r="E154" s="4">
-        <v>9682</v>
+        <v>9824</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3675,16 +3675,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>21147</v>
+        <v>21327</v>
       </c>
       <c r="C155" s="4">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D155" s="4">
-        <v>7566</v>
+        <v>8089</v>
       </c>
       <c r="E155" s="4">
-        <v>29077</v>
+        <v>29782</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3692,16 +3692,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>4621</v>
+        <v>4657</v>
       </c>
       <c r="C156" s="4">
         <v>861</v>
       </c>
       <c r="D156" s="4">
-        <v>4404</v>
+        <v>4453</v>
       </c>
       <c r="E156" s="4">
-        <v>9886</v>
+        <v>9971</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3709,16 +3709,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>2017</v>
+        <v>2026</v>
       </c>
       <c r="C157" s="4">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="D157" s="4">
-        <v>1600</v>
+        <v>1654</v>
       </c>
       <c r="E157" s="4">
-        <v>3912</v>
+        <v>3984</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3726,16 +3726,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>2762</v>
+        <v>2778</v>
       </c>
       <c r="C158" s="4">
         <v>132</v>
       </c>
       <c r="D158" s="4">
-        <v>2552</v>
+        <v>2666</v>
       </c>
       <c r="E158" s="4">
-        <v>5446</v>
+        <v>5576</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3743,16 +3743,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>50640</v>
+        <v>51392</v>
       </c>
       <c r="C159" s="4">
-        <v>1771</v>
+        <v>1783</v>
       </c>
       <c r="D159" s="4">
-        <v>8971</v>
+        <v>9376</v>
       </c>
       <c r="E159" s="4">
-        <v>61382</v>
+        <v>62551</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3760,16 +3760,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>109022</v>
+        <v>111083</v>
       </c>
       <c r="C160" s="4">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D160" s="4">
-        <v>33518</v>
+        <v>34904</v>
       </c>
       <c r="E160" s="4">
-        <v>143067</v>
+        <v>146517</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3777,16 +3777,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>4212</v>
+        <v>4264</v>
       </c>
       <c r="C161" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D161" s="4">
-        <v>6488</v>
+        <v>7142</v>
       </c>
       <c r="E161" s="4">
-        <v>10802</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3794,16 +3794,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>463816</v>
+        <v>469619</v>
       </c>
       <c r="C162" s="4">
-        <v>13915</v>
+        <v>14089</v>
       </c>
       <c r="D162" s="4">
-        <v>183695</v>
+        <v>187847</v>
       </c>
       <c r="E162" s="4">
-        <v>661426</v>
+        <v>671555</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3811,16 +3811,16 @@
         <v>166</v>
       </c>
       <c r="B163" s="4">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="C163" s="4">
         <v>63</v>
       </c>
       <c r="D163" s="4">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E163" s="4">
-        <v>903</v>
+        <v>921</v>
       </c>
     </row>
     <row r="164" ht="14" customHeight="1">
@@ -3828,16 +3828,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>57376</v>
+        <v>58161</v>
       </c>
       <c r="C164" s="4">
-        <v>1905</v>
+        <v>1931</v>
       </c>
       <c r="D164" s="4">
-        <v>18446</v>
+        <v>19357</v>
       </c>
       <c r="E164" s="4">
-        <v>77727</v>
+        <v>79449</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3845,16 +3845,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>2588</v>
+        <v>2599</v>
       </c>
       <c r="C165" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D165" s="4">
-        <v>2913</v>
+        <v>3185</v>
       </c>
       <c r="E165" s="4">
-        <v>5533</v>
+        <v>5817</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3862,16 +3862,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>92234</v>
+        <v>93627</v>
       </c>
       <c r="C166" s="4">
-        <v>12968</v>
+        <v>13185</v>
       </c>
       <c r="D166" s="4">
-        <v>99310</v>
+        <v>104305</v>
       </c>
       <c r="E166" s="4">
-        <v>204512</v>
+        <v>211117</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3879,16 +3879,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>28310</v>
+        <v>28652</v>
       </c>
       <c r="C167" s="4">
-        <v>1428</v>
+        <v>1453</v>
       </c>
       <c r="D167" s="4">
-        <v>14941</v>
+        <v>15320</v>
       </c>
       <c r="E167" s="4">
-        <v>44679</v>
+        <v>45425</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3896,16 +3896,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>10340</v>
+        <v>10439</v>
       </c>
       <c r="C168" s="4">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D168" s="4">
-        <v>3052</v>
+        <v>3089</v>
       </c>
       <c r="E168" s="4">
-        <v>13541</v>
+        <v>13681</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3913,16 +3913,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>9148</v>
+        <v>9184</v>
       </c>
       <c r="C169" s="4">
         <v>89</v>
       </c>
       <c r="D169" s="4">
-        <v>8655</v>
+        <v>8851</v>
       </c>
       <c r="E169" s="4">
-        <v>17892</v>
+        <v>18124</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3930,16 +3930,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>20202</v>
+        <v>20580</v>
       </c>
       <c r="C170" s="4">
-        <v>1112</v>
+        <v>1129</v>
       </c>
       <c r="D170" s="4">
-        <v>12473</v>
+        <v>13274</v>
       </c>
       <c r="E170" s="4">
-        <v>33787</v>
+        <v>34983</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3947,16 +3947,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>818685</v>
+        <v>834651</v>
       </c>
       <c r="C171" s="4">
-        <v>45361</v>
+        <v>45886</v>
       </c>
       <c r="D171" s="4">
-        <v>192283</v>
+        <v>199911</v>
       </c>
       <c r="E171" s="4">
-        <v>1056329</v>
+        <v>1080448</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3964,16 +3964,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>12671</v>
+        <v>12799</v>
       </c>
       <c r="C172" s="4">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D172" s="4">
-        <v>9074</v>
+        <v>9324</v>
       </c>
       <c r="E172" s="4">
-        <v>22489</v>
+        <v>22868</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3981,16 +3981,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>10786</v>
+        <v>10916</v>
       </c>
       <c r="C173" s="4">
         <v>797</v>
       </c>
       <c r="D173" s="4">
-        <v>9551</v>
+        <v>9637</v>
       </c>
       <c r="E173" s="4">
-        <v>21134</v>
+        <v>21350</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -3998,16 +3998,16 @@
         <v>177</v>
       </c>
       <c r="B174" s="4">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="C174" s="4">
         <v>17</v>
       </c>
       <c r="D174" s="4">
-        <v>592</v>
+        <v>637</v>
       </c>
       <c r="E174" s="4">
-        <v>1419</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4015,16 +4015,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>73670</v>
+        <v>74486</v>
       </c>
       <c r="C175" s="4">
-        <v>4158</v>
+        <v>4224</v>
       </c>
       <c r="D175" s="4">
-        <v>26361</v>
+        <v>27099</v>
       </c>
       <c r="E175" s="4">
-        <v>104189</v>
+        <v>105809</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4032,16 +4032,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>44979</v>
+        <v>45277</v>
       </c>
       <c r="C176" s="4">
-        <v>2110</v>
+        <v>2129</v>
       </c>
       <c r="D176" s="4">
-        <v>42087</v>
+        <v>43653</v>
       </c>
       <c r="E176" s="4">
-        <v>89176</v>
+        <v>91059</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4049,16 +4049,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>8119</v>
+        <v>8207</v>
       </c>
       <c r="C177" s="4">
-        <v>986</v>
+        <v>998</v>
       </c>
       <c r="D177" s="4">
-        <v>6551</v>
+        <v>6677</v>
       </c>
       <c r="E177" s="4">
-        <v>15656</v>
+        <v>15882</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4066,16 +4066,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>9490</v>
+        <v>9688</v>
       </c>
       <c r="C178" s="4">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D178" s="4">
-        <v>10185</v>
+        <v>10417</v>
       </c>
       <c r="E178" s="4">
-        <v>19930</v>
+        <v>20367</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4083,16 +4083,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>420765</v>
+        <v>427975</v>
       </c>
       <c r="C179" s="4">
-        <v>54989</v>
+        <v>55363</v>
       </c>
       <c r="D179" s="4">
-        <v>220320</v>
+        <v>225994</v>
       </c>
       <c r="E179" s="4">
-        <v>696074</v>
+        <v>709332</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4100,16 +4100,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>2438</v>
+        <v>2487</v>
       </c>
       <c r="C180" s="4">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D180" s="4">
-        <v>1830</v>
+        <v>1923</v>
       </c>
       <c r="E180" s="4">
-        <v>4601</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4117,16 +4117,16 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>1354</v>
+        <v>1372</v>
       </c>
       <c r="C181" s="4">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D181" s="4">
-        <v>1442</v>
+        <v>1453</v>
       </c>
       <c r="E181" s="4">
-        <v>3120</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4134,16 +4134,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>62577</v>
+        <v>63371</v>
       </c>
       <c r="C182" s="4">
-        <v>7494</v>
+        <v>7555</v>
       </c>
       <c r="D182" s="4">
-        <v>39078</v>
+        <v>40230</v>
       </c>
       <c r="E182" s="4">
-        <v>109149</v>
+        <v>111156</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4151,16 +4151,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>29023</v>
+        <v>29529</v>
       </c>
       <c r="C183" s="4">
-        <v>1106</v>
+        <v>1115</v>
       </c>
       <c r="D183" s="4">
-        <v>14696</v>
+        <v>14985</v>
       </c>
       <c r="E183" s="4">
-        <v>44825</v>
+        <v>45629</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4168,16 +4168,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>17027</v>
+        <v>17147</v>
       </c>
       <c r="C184" s="4">
-        <v>1302</v>
+        <v>1309</v>
       </c>
       <c r="D184" s="4">
-        <v>12547</v>
+        <v>12859</v>
       </c>
       <c r="E184" s="4">
-        <v>30876</v>
+        <v>31315</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4185,16 +4185,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>156552</v>
+        <v>159178</v>
       </c>
       <c r="C185" s="4">
-        <v>7929</v>
+        <v>8033</v>
       </c>
       <c r="D185" s="4">
-        <v>48787</v>
+        <v>49958</v>
       </c>
       <c r="E185" s="4">
-        <v>213268</v>
+        <v>217169</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4202,16 +4202,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>3836</v>
+        <v>3906</v>
       </c>
       <c r="C186" s="4">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D186" s="4">
-        <v>4665</v>
+        <v>4775</v>
       </c>
       <c r="E186" s="4">
-        <v>8755</v>
+        <v>8937</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4219,16 +4219,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>15523</v>
+        <v>15571</v>
       </c>
       <c r="C187" s="4">
         <v>176</v>
       </c>
       <c r="D187" s="4">
-        <v>6322</v>
+        <v>6520</v>
       </c>
       <c r="E187" s="4">
-        <v>22021</v>
+        <v>22267</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4236,16 +4236,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>64249</v>
+        <v>64789</v>
       </c>
       <c r="C188" s="4">
-        <v>2811</v>
+        <v>2840</v>
       </c>
       <c r="D188" s="4">
-        <v>27368</v>
+        <v>27845</v>
       </c>
       <c r="E188" s="4">
-        <v>94428</v>
+        <v>95474</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4253,16 +4253,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>128676</v>
+        <v>130277</v>
       </c>
       <c r="C189" s="4">
-        <v>7563</v>
+        <v>7666</v>
       </c>
       <c r="D189" s="4">
-        <v>58582</v>
+        <v>60129</v>
       </c>
       <c r="E189" s="4">
-        <v>194821</v>
+        <v>198072</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4270,16 +4270,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>7913</v>
+        <v>7955</v>
       </c>
       <c r="C190" s="4">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D190" s="4">
-        <v>2380</v>
+        <v>2390</v>
       </c>
       <c r="E190" s="4">
-        <v>10358</v>
+        <v>10412</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4287,16 +4287,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>6712</v>
+        <v>6823</v>
       </c>
       <c r="C191" s="4">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D191" s="4">
-        <v>4213</v>
+        <v>4289</v>
       </c>
       <c r="E191" s="4">
-        <v>11404</v>
+        <v>11596</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4304,16 +4304,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>98283</v>
+        <v>99691</v>
       </c>
       <c r="C192" s="4">
-        <v>14971</v>
+        <v>15203</v>
       </c>
       <c r="D192" s="4">
-        <v>51232</v>
+        <v>52330</v>
       </c>
       <c r="E192" s="4">
-        <v>164486</v>
+        <v>167224</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4321,16 +4321,16 @@
         <v>196</v>
       </c>
       <c r="B193" s="4">
-        <v>1336</v>
+        <v>1348</v>
       </c>
       <c r="C193" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D193" s="4">
-        <v>1549</v>
+        <v>1591</v>
       </c>
       <c r="E193" s="4">
-        <v>2936</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4338,16 +4338,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>3067</v>
+        <v>3109</v>
       </c>
       <c r="C194" s="4">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D194" s="4">
-        <v>1985</v>
+        <v>2008</v>
       </c>
       <c r="E194" s="4">
-        <v>5212</v>
+        <v>5283</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4355,16 +4355,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>9090</v>
+        <v>9180</v>
       </c>
       <c r="C195" s="4">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="D195" s="4">
-        <v>11234</v>
+        <v>11396</v>
       </c>
       <c r="E195" s="4">
-        <v>21115</v>
+        <v>21375</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4372,16 +4372,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>14569</v>
+        <v>14831</v>
       </c>
       <c r="C196" s="4">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="D196" s="4">
-        <v>103713</v>
+        <v>104160</v>
       </c>
       <c r="E196" s="4">
-        <v>118852</v>
+        <v>119568</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4389,16 +4389,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>6652</v>
+        <v>6806</v>
       </c>
       <c r="C197" s="4">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D197" s="4">
-        <v>10450</v>
+        <v>10616</v>
       </c>
       <c r="E197" s="4">
-        <v>17661</v>
+        <v>17982</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4406,16 +4406,16 @@
         <v>201</v>
       </c>
       <c r="B198" s="4">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C198" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D198" s="4">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E198" s="4">
-        <v>638</v>
+        <v>645</v>
       </c>
     </row>
     <row r="199" ht="14" customHeight="1">
@@ -4423,16 +4423,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>21721</v>
+        <v>22053</v>
       </c>
       <c r="C199" s="4">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="D199" s="4">
-        <v>15375</v>
+        <v>15674</v>
       </c>
       <c r="E199" s="4">
-        <v>37678</v>
+        <v>38317</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4440,16 +4440,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>126888</v>
+        <v>128796</v>
       </c>
       <c r="C200" s="4">
-        <v>8616</v>
+        <v>8725</v>
       </c>
       <c r="D200" s="4">
-        <v>28247</v>
+        <v>30026</v>
       </c>
       <c r="E200" s="4">
-        <v>163751</v>
+        <v>167547</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4457,16 +4457,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>8618</v>
+        <v>8666</v>
       </c>
       <c r="C201" s="4">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D201" s="4">
-        <v>10179</v>
+        <v>10313</v>
       </c>
       <c r="E201" s="4">
-        <v>19060</v>
+        <v>19245</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4474,16 +4474,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>39000</v>
+        <v>39308</v>
       </c>
       <c r="C202" s="4">
-        <v>2436</v>
+        <v>2455</v>
       </c>
       <c r="D202" s="4">
-        <v>12986</v>
+        <v>13294</v>
       </c>
       <c r="E202" s="4">
-        <v>54422</v>
+        <v>55057</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4491,16 +4491,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>12289</v>
+        <v>12368</v>
       </c>
       <c r="C203" s="4">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="D203" s="4">
-        <v>5487</v>
+        <v>5551</v>
       </c>
       <c r="E203" s="4">
-        <v>18464</v>
+        <v>18612</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4508,16 +4508,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>11892</v>
+        <v>12094</v>
       </c>
       <c r="C204" s="4">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D204" s="4">
-        <v>11359</v>
+        <v>11718</v>
       </c>
       <c r="E204" s="4">
-        <v>23507</v>
+        <v>24074</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4525,16 +4525,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>36367</v>
+        <v>37019</v>
       </c>
       <c r="C205" s="4">
-        <v>2349</v>
+        <v>2362</v>
       </c>
       <c r="D205" s="4">
-        <v>12442</v>
+        <v>12692</v>
       </c>
       <c r="E205" s="4">
-        <v>51158</v>
+        <v>52073</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4542,16 +4542,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>65516</v>
+        <v>66457</v>
       </c>
       <c r="C206" s="4">
-        <v>10327</v>
+        <v>10380</v>
       </c>
       <c r="D206" s="4">
-        <v>53952</v>
+        <v>54759</v>
       </c>
       <c r="E206" s="4">
-        <v>129795</v>
+        <v>131596</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4559,16 +4559,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>5981</v>
+        <v>6012</v>
       </c>
       <c r="C207" s="4">
         <v>148</v>
       </c>
       <c r="D207" s="4">
-        <v>4379</v>
+        <v>4473</v>
       </c>
       <c r="E207" s="4">
-        <v>10508</v>
+        <v>10633</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4576,16 +4576,16 @@
         <v>211</v>
       </c>
       <c r="B208" s="4">
-        <v>1228</v>
+        <v>1240</v>
       </c>
       <c r="C208" s="4">
         <v>0</v>
       </c>
       <c r="D208" s="4">
-        <v>1235</v>
+        <v>1258</v>
       </c>
       <c r="E208" s="4">
-        <v>2463</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4593,16 +4593,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>32663</v>
+        <v>32902</v>
       </c>
       <c r="C209" s="4">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D209" s="4">
-        <v>6370</v>
+        <v>6534</v>
       </c>
       <c r="E209" s="4">
-        <v>39391</v>
+        <v>39799</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4610,16 +4610,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>1154</v>
+        <v>1166</v>
       </c>
       <c r="C210" s="4">
         <v>103</v>
       </c>
       <c r="D210" s="4">
-        <v>1567</v>
+        <v>1603</v>
       </c>
       <c r="E210" s="4">
-        <v>2824</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4627,16 +4627,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>25234</v>
+        <v>25588</v>
       </c>
       <c r="C211" s="4">
-        <v>1385</v>
+        <v>1396</v>
       </c>
       <c r="D211" s="4">
-        <v>12793</v>
+        <v>13257</v>
       </c>
       <c r="E211" s="4">
-        <v>39412</v>
+        <v>40241</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4644,16 +4644,16 @@
         <v>215</v>
       </c>
       <c r="B212" s="4">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C212" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D212" s="4">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="E212" s="4">
-        <v>802</v>
+        <v>814</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4661,16 +4661,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>329036</v>
+        <v>334883</v>
       </c>
       <c r="C213" s="4">
-        <v>16627</v>
+        <v>17053</v>
       </c>
       <c r="D213" s="4">
-        <v>125850</v>
+        <v>130662</v>
       </c>
       <c r="E213" s="4">
-        <v>471513</v>
+        <v>482598</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4678,16 +4678,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>10367</v>
+        <v>10583</v>
       </c>
       <c r="C214" s="4">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D214" s="4">
-        <v>9092</v>
+        <v>9383</v>
       </c>
       <c r="E214" s="4">
-        <v>19879</v>
+        <v>20389</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4695,16 +4695,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>97044</v>
+        <v>99888</v>
       </c>
       <c r="C215" s="4">
-        <v>971</v>
+        <v>997</v>
       </c>
       <c r="D215" s="4">
-        <v>42757</v>
+        <v>43262</v>
       </c>
       <c r="E215" s="4">
-        <v>140772</v>
+        <v>144147</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4712,16 +4712,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>6694</v>
+        <v>6738</v>
       </c>
       <c r="C216" s="4">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D216" s="4">
-        <v>8219</v>
+        <v>8486</v>
       </c>
       <c r="E216" s="4">
-        <v>15078</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4729,16 +4729,16 @@
         <v>220</v>
       </c>
       <c r="B217" s="4">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="C217" s="4">
         <v>26</v>
       </c>
       <c r="D217" s="4">
-        <v>1224</v>
+        <v>1234</v>
       </c>
       <c r="E217" s="4">
-        <v>1999</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4746,16 +4746,16 @@
         <v>221</v>
       </c>
       <c r="B218" s="4">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C218" s="4">
         <v>9</v>
       </c>
       <c r="D218" s="4">
-        <v>2221</v>
+        <v>2251</v>
       </c>
       <c r="E218" s="4">
-        <v>2450</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4763,16 +4763,16 @@
         <v>222</v>
       </c>
       <c r="B219" s="4">
-        <v>1695</v>
+        <v>1701</v>
       </c>
       <c r="C219" s="4">
         <v>47</v>
       </c>
       <c r="D219" s="4">
-        <v>1684</v>
+        <v>1711</v>
       </c>
       <c r="E219" s="4">
-        <v>3426</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4780,16 +4780,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>8978</v>
+        <v>9038</v>
       </c>
       <c r="C220" s="4">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="D220" s="4">
-        <v>2732</v>
+        <v>2795</v>
       </c>
       <c r="E220" s="4">
-        <v>12065</v>
+        <v>12200</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4797,16 +4797,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>3223027</v>
+        <v>3290964</v>
       </c>
       <c r="C221" s="4">
-        <v>118345</v>
+        <v>119698</v>
       </c>
       <c r="D221" s="4">
-        <v>751352</v>
+        <v>768353</v>
       </c>
       <c r="E221" s="4">
-        <v>4092724</v>
+        <v>4179015</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4814,16 +4814,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>126841</v>
+        <v>129019</v>
       </c>
       <c r="C222" s="4">
-        <v>5049</v>
+        <v>5135</v>
       </c>
       <c r="D222" s="4">
-        <v>178426</v>
+        <v>182507</v>
       </c>
       <c r="E222" s="4">
-        <v>310316</v>
+        <v>316661</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4831,16 +4831,16 @@
         <v>226</v>
       </c>
       <c r="B223" s="4">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C223" s="4">
         <v>0</v>
       </c>
       <c r="D223" s="4">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E223" s="4">
-        <v>800</v>
+        <v>805</v>
       </c>
     </row>
     <row r="224" ht="14" customHeight="1">
@@ -4848,16 +4848,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>6347</v>
+        <v>6401</v>
       </c>
       <c r="C224" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D224" s="4">
-        <v>4999</v>
+        <v>5094</v>
       </c>
       <c r="E224" s="4">
-        <v>11486</v>
+        <v>11636</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4865,16 +4865,16 @@
         <v>228</v>
       </c>
       <c r="B225" s="4">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="C225" s="4">
         <v>52</v>
       </c>
       <c r="D225" s="4">
-        <v>1093</v>
+        <v>1168</v>
       </c>
       <c r="E225" s="4">
-        <v>1650</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4882,16 +4882,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>37882</v>
+        <v>38295</v>
       </c>
       <c r="C226" s="4">
-        <v>1491</v>
+        <v>1498</v>
       </c>
       <c r="D226" s="4">
-        <v>12740</v>
+        <v>13399</v>
       </c>
       <c r="E226" s="4">
-        <v>52113</v>
+        <v>53192</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4899,16 +4899,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>108463</v>
+        <v>109044</v>
       </c>
       <c r="C227" s="4">
-        <v>3444</v>
+        <v>3477</v>
       </c>
       <c r="D227" s="4">
-        <v>169359</v>
+        <v>172331</v>
       </c>
       <c r="E227" s="4">
-        <v>281266</v>
+        <v>284852</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4916,16 +4916,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>2191745</v>
+        <v>2234735</v>
       </c>
       <c r="C228" s="4">
-        <v>104926</v>
+        <v>108324</v>
       </c>
       <c r="D228" s="4">
-        <v>573765</v>
+        <v>585309</v>
       </c>
       <c r="E228" s="4">
-        <v>2870436</v>
+        <v>2928368</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4933,16 +4933,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>19867</v>
+        <v>20084</v>
       </c>
       <c r="C229" s="4">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="D229" s="4">
-        <v>9938</v>
+        <v>10271</v>
       </c>
       <c r="E229" s="4">
-        <v>30355</v>
+        <v>30916</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4950,16 +4950,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>18107</v>
+        <v>18292</v>
       </c>
       <c r="C230" s="4">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="D230" s="4">
-        <v>13124</v>
+        <v>13369</v>
       </c>
       <c r="E230" s="4">
-        <v>32361</v>
+        <v>32795</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4967,16 +4967,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>17927</v>
+        <v>18096</v>
       </c>
       <c r="C231" s="4">
-        <v>2568</v>
+        <v>2603</v>
       </c>
       <c r="D231" s="4">
-        <v>11932</v>
+        <v>12161</v>
       </c>
       <c r="E231" s="4">
-        <v>32427</v>
+        <v>32860</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4984,16 +4984,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>1381</v>
+        <v>1402</v>
       </c>
       <c r="C232" s="4">
         <v>108</v>
       </c>
       <c r="D232" s="4">
-        <v>4815</v>
+        <v>4914</v>
       </c>
       <c r="E232" s="4">
-        <v>6304</v>
+        <v>6424</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -5001,16 +5001,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>52306</v>
+        <v>53293</v>
       </c>
       <c r="C233" s="4">
-        <v>664</v>
+        <v>684</v>
       </c>
       <c r="D233" s="4">
-        <v>7994</v>
+        <v>8093</v>
       </c>
       <c r="E233" s="4">
-        <v>60964</v>
+        <v>62070</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5018,16 +5018,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>75948</v>
+        <v>76727</v>
       </c>
       <c r="C234" s="4">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="D234" s="4">
-        <v>38847</v>
+        <v>39779</v>
       </c>
       <c r="E234" s="4">
-        <v>116157</v>
+        <v>117872</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5035,16 +5035,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>38636</v>
+        <v>39531</v>
       </c>
       <c r="C235" s="4">
-        <v>2456</v>
+        <v>2485</v>
       </c>
       <c r="D235" s="4">
-        <v>26226</v>
+        <v>26736</v>
       </c>
       <c r="E235" s="4">
-        <v>67318</v>
+        <v>68752</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5052,16 +5052,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>85301</v>
+        <v>86314</v>
       </c>
       <c r="C236" s="4">
-        <v>6992</v>
+        <v>7265</v>
       </c>
       <c r="D236" s="4">
-        <v>39159</v>
+        <v>39974</v>
       </c>
       <c r="E236" s="4">
-        <v>131452</v>
+        <v>133553</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5069,16 +5069,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>188703</v>
+        <v>190461</v>
       </c>
       <c r="C237" s="4">
-        <v>2875</v>
+        <v>2903</v>
       </c>
       <c r="D237" s="4">
-        <v>54019</v>
+        <v>55772</v>
       </c>
       <c r="E237" s="4">
-        <v>245597</v>
+        <v>249136</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5086,16 +5086,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>73314</v>
+        <v>74732</v>
       </c>
       <c r="C238" s="4">
-        <v>2152</v>
+        <v>2167</v>
       </c>
       <c r="D238" s="4">
-        <v>14342</v>
+        <v>14744</v>
       </c>
       <c r="E238" s="4">
-        <v>89808</v>
+        <v>91643</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5103,16 +5103,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>6491</v>
+        <v>6567</v>
       </c>
       <c r="C239" s="4">
         <v>241</v>
       </c>
       <c r="D239" s="4">
-        <v>3792</v>
+        <v>3836</v>
       </c>
       <c r="E239" s="4">
-        <v>10524</v>
+        <v>10644</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5120,16 +5120,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>61909</v>
+        <v>62763</v>
       </c>
       <c r="C240" s="4">
-        <v>1925</v>
+        <v>1947</v>
       </c>
       <c r="D240" s="4">
-        <v>35048</v>
+        <v>35917</v>
       </c>
       <c r="E240" s="4">
-        <v>98882</v>
+        <v>100627</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5137,16 +5137,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>647721</v>
+        <v>659806</v>
       </c>
       <c r="C241" s="4">
-        <v>7282</v>
+        <v>7312</v>
       </c>
       <c r="D241" s="4">
-        <v>182863</v>
+        <v>188405</v>
       </c>
       <c r="E241" s="4">
-        <v>837866</v>
+        <v>855523</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5154,16 +5154,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>55566</v>
+        <v>56376</v>
       </c>
       <c r="C242" s="4">
-        <v>2359</v>
+        <v>2392</v>
       </c>
       <c r="D242" s="4">
-        <v>20953</v>
+        <v>25123</v>
       </c>
       <c r="E242" s="4">
-        <v>78878</v>
+        <v>83891</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5171,16 +5171,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>2752</v>
+        <v>2779</v>
       </c>
       <c r="C243" s="4">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D243" s="4">
-        <v>5732</v>
+        <v>5768</v>
       </c>
       <c r="E243" s="4">
-        <v>8850</v>
+        <v>8917</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5188,16 +5188,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>172869</v>
+        <v>175263</v>
       </c>
       <c r="C244" s="4">
-        <v>10574</v>
+        <v>10781</v>
       </c>
       <c r="D244" s="4">
-        <v>99072</v>
+        <v>101956</v>
       </c>
       <c r="E244" s="4">
-        <v>282515</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5205,16 +5205,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>19158</v>
+        <v>19337</v>
       </c>
       <c r="C245" s="4">
         <v>573</v>
       </c>
       <c r="D245" s="4">
-        <v>45451</v>
+        <v>46705</v>
       </c>
       <c r="E245" s="4">
-        <v>65182</v>
+        <v>66615</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5222,16 +5222,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>59305</v>
+        <v>59957</v>
       </c>
       <c r="C246" s="4">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D246" s="4">
-        <v>11895</v>
+        <v>12047</v>
       </c>
       <c r="E246" s="4">
-        <v>71469</v>
+        <v>72277</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5239,16 +5239,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>965922</v>
+        <v>983395</v>
       </c>
       <c r="C247" s="4">
-        <v>48628</v>
+        <v>50242</v>
       </c>
       <c r="D247" s="4">
-        <v>263361</v>
+        <v>269781</v>
       </c>
       <c r="E247" s="4">
-        <v>1277911</v>
+        <v>1303418</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5256,16 +5256,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>60170</v>
+        <v>60766</v>
       </c>
       <c r="C248" s="4">
-        <v>1755</v>
+        <v>1790</v>
       </c>
       <c r="D248" s="4">
-        <v>30182</v>
+        <v>32943</v>
       </c>
       <c r="E248" s="4">
-        <v>92107</v>
+        <v>95499</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5273,16 +5273,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>2347</v>
+        <v>2394</v>
       </c>
       <c r="C249" s="4">
         <v>77</v>
       </c>
       <c r="D249" s="4">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="E249" s="4">
-        <v>3373</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5290,16 +5290,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>85464</v>
+        <v>87255</v>
       </c>
       <c r="C250" s="4">
-        <v>4132</v>
+        <v>4210</v>
       </c>
       <c r="D250" s="4">
-        <v>21296</v>
+        <v>21838</v>
       </c>
       <c r="E250" s="4">
-        <v>110892</v>
+        <v>113303</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5307,16 +5307,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>33574</v>
+        <v>33986</v>
       </c>
       <c r="C251" s="4">
-        <v>2480</v>
+        <v>2503</v>
       </c>
       <c r="D251" s="4">
-        <v>24520</v>
+        <v>25186</v>
       </c>
       <c r="E251" s="4">
-        <v>60574</v>
+        <v>61675</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5324,16 +5324,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>3234</v>
+        <v>3275</v>
       </c>
       <c r="C252" s="4">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D252" s="4">
-        <v>2935</v>
+        <v>3054</v>
       </c>
       <c r="E252" s="4">
-        <v>6333</v>
+        <v>6494</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5341,16 +5341,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>12915</v>
+        <v>13243</v>
       </c>
       <c r="C253" s="4">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="D253" s="4">
-        <v>8669</v>
+        <v>8770</v>
       </c>
       <c r="E253" s="4">
-        <v>22241</v>
+        <v>22676</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5358,16 +5358,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>20684</v>
+        <v>20751</v>
       </c>
       <c r="C254" s="4">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D254" s="4">
-        <v>20408</v>
+        <v>20596</v>
       </c>
       <c r="E254" s="4">
-        <v>41270</v>
+        <v>41530</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5375,16 +5375,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>16974</v>
+        <v>17326</v>
       </c>
       <c r="C255" s="4">
         <v>273</v>
       </c>
       <c r="D255" s="4">
-        <v>4155</v>
+        <v>4272</v>
       </c>
       <c r="E255" s="4">
-        <v>21402</v>
+        <v>21871</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5392,16 +5392,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>600498</v>
+        <v>616920</v>
       </c>
       <c r="C256" s="4">
-        <v>14212</v>
+        <v>14221</v>
       </c>
       <c r="D256" s="4">
-        <v>20420</v>
+        <v>20917</v>
       </c>
       <c r="E256" s="4">
-        <v>635130</v>
+        <v>652058</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5409,16 +5409,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>46991355</v>
+        <v>47941374</v>
       </c>
       <c r="C257" s="4">
-        <v>1796866</v>
+        <v>1823659</v>
       </c>
       <c r="D257" s="4">
-        <v>12930221</v>
+        <v>13322447</v>
       </c>
       <c r="E257" s="4">
-        <v>61718442</v>
+        <v>63087480</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
